--- a/Simple_XLS_Importer/data/OECD-SIGI/OECD-SIGI-12.xlsx
+++ b/Simple_XLS_Importer/data/OECD-SIGI/OECD-SIGI-12.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Statistical Metadata&amp;Notes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>country</t>
   </si>
@@ -299,12 +299,15 @@
   <si>
     <t xml:space="preserve">  Zambia</t>
   </si>
+  <si>
+    <t>SIGI-12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -715,18 +718,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="59.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="59.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1488,16 +1491,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1521,8 +1524,8 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
-        <v>12</v>
+      <c r="B3" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1544,14 +1547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
